--- a/委員/黃信行/品力會活動認證申請表(黃信行).xlsx
+++ b/委員/黃信行/品力會活動認證申請表(黃信行).xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9b502ae5df4ed12/品質力委員會/品質力活動認證/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{9BD34600-8111-4D3F-BBB5-14C531EA6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFE92D7-DC08-4972-9292-593723C80216}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8712" xr2:uid="{32E44CA7-2C83-4EA6-8F61-9B948A9B3DF3}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16605" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="示例" sheetId="1" r:id="rId1"/>
     <sheet name="會員編號" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,41 +30,308 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活動紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>１</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦單位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">實施     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年月日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯絡地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部門</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>職務</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡祥智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>活動紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認證要件資訊</t>
+  </si>
+  <si>
+    <t>審核意見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">品質力活動認證  </t>
+  </si>
+  <si>
+    <t>CSQ會員編號</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文姓名</t>
+  </si>
+  <si>
+    <t>申請者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">實施  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年月日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳文魁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳玄岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喬凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧銘輝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游素珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃信行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳文舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品力會會員證編號單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t xml:space="preserve">                    品力會活動認證申請表(CSQ-QBC Form001)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申請日：　    年   月   日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申請者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文姓名</t>
-  </si>
-  <si>
-    <t>CSQ會員編號</t>
+    <t>申請日：2022年4月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機械系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教授</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黃信行</t>
-  </si>
-  <si>
-    <t>HHH</t>
-  </si>
-  <si>
-    <t>服務單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中原大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hsing-Hsin Huang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,16 +342,17 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>部門</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
+      <t>住址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -100,27 +362,44 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>職務</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機械系</t>
-  </si>
-  <si>
-    <t>聯絡地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
+      <t>新北市三重區溪尾街187號5F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-mail：hhh@cycu.edu.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品質力會員證編號
+（請填入會員證編號）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQQB007</t>
+  </si>
+  <si>
+    <t>CSQQB007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廿一世紀品質宣言中文翻譯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSQ品力會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>住址</t>
+      <t>設計</t>
     </r>
     <r>
       <rPr>
@@ -128,227 +407,38 @@
         <color theme="1"/>
         <rFont val="MS Mincho"/>
         <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e-mail：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>認證要件資訊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品質力活動認證  </t>
-  </si>
-  <si>
-    <t>品質力會員證編號                      （請填入會員證編號）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審核意見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB007</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>活動紀錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>品質宣言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖像，並修正前言部分文字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="MS Mincho"/>
         <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>１</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製作廿一世界品質宣言電子碑</t>
-  </si>
-  <si>
-    <r>
-      <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>辦單位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">實施  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年月日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>活動紀錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">實施     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>年月日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品力會會員證編號單</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡祥智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳文魁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳玄岳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喬凡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盧銘輝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游素珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃信行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳文舟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSQQB008</t>
+      <t>(如附件)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,6 +474,13 @@
       <name val="MS Mincho"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -581,22 +678,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -606,93 +706,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +815,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,7 +857,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -806,7 +909,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1000,247 +1103,273 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39982C40-B8BF-4012-95E4-207EC796C283}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.149999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="32"/>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="D3" s="30" t="s">
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
-      <c r="A5" s="23" t="s">
+      <c r="C16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="38">
+        <v>44663</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="37.15" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="37.15" customHeight="1">
-      <c r="A12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:5" ht="37.15" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="37.15" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" ht="49.9" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="36"/>
-    </row>
-    <row r="21" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:5" ht="49.9" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="E19:E22"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="D5:E5"/>
@@ -1251,109 +1380,98 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA2086A-4102-4BC5-86D8-5F74F4C9C91A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
